--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_14.08.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699861.9928358</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699862.2398517</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699861.9928358.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699862.2398517.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>12.213</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>12.192</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.02099999999999902</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699863.268715</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699863.4080868</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699863.268715.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699863.4080868.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>12.186</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>12199</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>12186.814</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>100006.68</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699864.4195542</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699864.84402</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699864.4195542.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699864.84402.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>12.208</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>12.201</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699864.9140527</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699865.200933</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699864.9140527.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699865.200933.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>12.21</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>12.205</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,44 +787,50 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699865.214895</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731699865.214895.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731699865.214895.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>12.205</v>
       </c>
-      <c r="J7" t="n">
-        <v>12.205</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1170000000000009</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.96</v>
       </c>
     </row>
   </sheetData>
@@ -845,19 +891,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12186.847</v>
+        <v>12186.73</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2437.3694</v>
+        <v>2437.346</v>
       </c>
       <c r="E2" t="n">
-        <v>100006.95</v>
+        <v>100005.99</v>
       </c>
       <c r="F2" t="n">
-        <v>20001.39</v>
+        <v>20001.2</v>
       </c>
     </row>
     <row r="3">
